--- a/biology/Zoologie/Gnathostomata/Gnathostomata.xlsx
+++ b/biology/Zoologie/Gnathostomata/Gnathostomata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gnathostomes · Vertébrés à mâchoires
-Les Gnathostomes (Gnathostomata), aussi connus sous le nom de vertébrés à mâchoires, sont un infra-embranchement d'animaux vertébrés dont la particularité principale est la présence de mâchoires. Il s'agit du groupe le plus diversifié parmi les chordés ; il représente 99 % des vertébrés, avec près de 60 000 espèces[1]. La mâchoire de ces animaux est une partie du splanchnocrâne, sa partie supérieure bilatérale est constituée des cartilages ptérygopalatocarrés et la partie inférieure bilatérale (mandibule) des cartilages de Meckel.
+Les Gnathostomes (Gnathostomata), aussi connus sous le nom de vertébrés à mâchoires, sont un infra-embranchement d'animaux vertébrés dont la particularité principale est la présence de mâchoires. Il s'agit du groupe le plus diversifié parmi les chordés ; il représente 99 % des vertébrés, avec près de 60 000 espèces. La mâchoire de ces animaux est une partie du splanchnocrâne, sa partie supérieure bilatérale est constituée des cartilages ptérygopalatocarrés et la partie inférieure bilatérale (mandibule) des cartilages de Meckel.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot Gnathostomata vient du grec ancien γνάθος / gnáthos, « mâchoire » et στόμα / stóma, « bouche ».
 </t>
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le caractère qui définit le groupe des Gnathostomes est la présence de mâchoires cartilagineuses, qui sont interprétées par les anatomistes comme[pas clair] dérivant du premier arc branchial.
 Ce groupe présente d'autres caractères propres :
@@ -551,7 +567,7 @@
 dans l'oreille interne, trois canaux semi-circulaires, au lieu de deux, servent à l'orientation ;
 certaines fibres nerveuses sont entourées de gaines de myéline ;
 l'hémoglobine comporte quatre chaînes d'acides aminés 2α et 2β.
-La présence de mâchoires permet aux espèces de cet embranchement la prédation de proies de plus grande taille et mobiles[2].
+La présence de mâchoires permet aux espèces de cet embranchement la prédation de proies de plus grande taille et mobiles.
 Ce groupe comprend actuellement les chondrichthyens (« poissons » cartilagineux), d'une part, et les eutéléostomes, d'autre part, c'est-à-dire les autres « poissons » (« poissons osseux ») et les tétrapodes.
 </t>
         </is>
@@ -581,11 +597,13 @@
           <t>Liste des classes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Liste des classes actuelles selon l'ITIS      (4 mars 2019)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Liste des classes actuelles selon l'ITIS      (4 mars 2019) :
 Chondrichthyes – les poissons cartilagineux ;
-(super-classe Euteleostomi/Osteichthyes[4] – les poissons osseux, tétrapodes inclus) :
+(super-classe Euteleostomi/Osteichthyes – les poissons osseux, tétrapodes inclus) :
 classe Actinopterygii – les poissons à nageoires rayonnées :
 Chondrostei,
 Cladistei,
@@ -599,7 +617,7 @@
 Aves – les Oiseaux,
 Mammalia – les Mammifères,
 Reptilia* – les Reptiles.
-Liste des classes fossiles[5] :
+Liste des classes fossiles :
 † Placodermi Mc Coy, 1848 ;
 dans le clade Eugnathostomata (groupe-couronne des gnathostomes actuels) :
 † Acanthodii* Owen, 1846 (incluant Chondrichthyes).</t>
@@ -630,9 +648,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des grands groupes actuels des Vertébrés d'après Betancur-R et al. (2017)[6] et Heimberg et al. (2010)[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des grands groupes actuels des Vertébrés d'après Betancur-R et al. (2017) et Heimberg et al. (2010) :
 </t>
         </is>
       </c>
